--- a/PCB_files/Remote BCD_Decoder_BOM_19-Jan-2025.xlsx
+++ b/PCB_files/Remote BCD_Decoder_BOM_19-Jan-2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF497DA-B349-4F88-83AE-42ADDB0FC6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{65B32AEF-724B-4148-B9DF-9BC429EFC9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B217C9-EA24-46DC-8588-1DDA0912C9E5}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="795" windowWidth="21600" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
   <si>
     <t>No.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>C1,C2,C3,C5,C6,C7,C8,C9,C10,C11</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>1N4001</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>1N4148</t>
-  </si>
-  <si>
     <t>D2,D3,D4,D5</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>PZ254V-11-03P</t>
-  </si>
-  <si>
     <t>J1,J5,J6</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>J3,J4</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Power_ON</t>
   </si>
   <si>
@@ -137,9 +122,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>RN1</t>
   </si>
   <si>
@@ -158,12 +140,6 @@
     <t>U4,U5</t>
   </si>
   <si>
-    <t>TI(德州仪器)</t>
-  </si>
-  <si>
-    <t>C1547095</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -173,15 +149,6 @@
     <t>U6</t>
   </si>
   <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>C411818</t>
-  </si>
-  <si>
-    <t>2.1x5.5mm DC coaxial power jack</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/molex/0395077010/4480458</t>
   </si>
   <si>
@@ -191,12 +158,6 @@
     <t>Molex</t>
   </si>
   <si>
-    <t>100nF radial leaded</t>
-  </si>
-  <si>
-    <t>22uF electrolytic</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -206,9 +167,6 @@
     <t>Pluggable Terminal Block Hdr 8pos 3.5mm</t>
   </si>
   <si>
-    <t>3mm LED - GREEN</t>
-  </si>
-  <si>
     <t>0Ω wire jumper</t>
   </si>
   <si>
@@ -227,9 +185,6 @@
     <t>10 pos plug</t>
   </si>
   <si>
-    <t>8x1KΩ resistor network, bussed</t>
-  </si>
-  <si>
     <t>8x1KΩ</t>
   </si>
   <si>
@@ -296,7 +251,139 @@
     <t>PTR030V0110-BK-ND</t>
   </si>
   <si>
-    <t>PTR030V0110-BK Eaton - Electronics Division | Circuit Protection | DigiKey</t>
+    <t>DIODE STANDARD 100V 200MA DO35</t>
+  </si>
+  <si>
+    <t>1N914BTR</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>1N914BCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/1N914BTR/458816</t>
+  </si>
+  <si>
+    <t>DIODE STANDARD 1000V 1A AXIAL</t>
+  </si>
+  <si>
+    <t>1N4007RLG</t>
+  </si>
+  <si>
+    <t>1N4007RLGOSCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/1N4007RLG/918021</t>
+  </si>
+  <si>
+    <t>3mm dia LED - green</t>
+  </si>
+  <si>
+    <t>3mm GREEN</t>
+  </si>
+  <si>
+    <t>‎US-EL-CP-009</t>
+  </si>
+  <si>
+    <t>ELEGOO</t>
+  </si>
+  <si>
+    <t>B0739RYXVC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0739RYXVC</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>4609X-101-102LF</t>
+  </si>
+  <si>
+    <t>4609X-101-102LF-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/4609X-101-102LF/3593658</t>
+  </si>
+  <si>
+    <t>RES ARRAY 8 RES 1K OHM 9SIP</t>
+  </si>
+  <si>
+    <t>13-CFR-25JR-52-330RCT-ND</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>CFR-25JR-52-330R</t>
+  </si>
+  <si>
+    <t>CFR-25JR-52-330R YAGEO | Resistors | DigiKey</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>296-25983-5-ND</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>IC DECODER/DEMUX 1X3:8 16DIP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD74HC238E/1506865</t>
+  </si>
+  <si>
+    <t>839-54-00166-ND</t>
+  </si>
+  <si>
+    <t>Tensility International Corp</t>
+  </si>
+  <si>
+    <t>54-00166</t>
+  </si>
+  <si>
+    <t>CONN JACK R/A PCB 5.5X2.1MM</t>
+  </si>
+  <si>
+    <t>CAP ALUM 22UF 20% 50V RADIAL TH</t>
+  </si>
+  <si>
+    <t>226CKR050M</t>
+  </si>
+  <si>
+    <t>Cornell Dubilier Knowles</t>
+  </si>
+  <si>
+    <t>1572-1384-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cornell-dubilier-knowles/226CKR050M/5411619</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C333C104F5G5TA/6658919</t>
+  </si>
+  <si>
+    <t>C333C104F5G5TA-ND</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C333C104F5G5TA</t>
+  </si>
+  <si>
+    <t>0.1 µF ±1% 50V Ceramic Capacitor C0G, NP0 Radial</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tensility-international-corp/54-00166/10459294</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/eaton-electronics-division/PTR030V0110-BK/2675229</t>
   </si>
 </sst>
 </file>
@@ -343,12 +430,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,474 +782,597 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="9" width="20" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>395066008</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="2">
         <v>395045008</v>
       </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="2">
         <v>395066010</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F12" s="2">
         <v>395077010</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" xr:uid="{5572B65E-0FB6-4D60-8797-DA2E09ED5E5E}"/>
     <hyperlink ref="I11" r:id="rId2" xr:uid="{C49EFFB7-2CDC-4AE8-8B1E-BD838321376E}"/>
     <hyperlink ref="I12" r:id="rId3" xr:uid="{5782EBC3-82D3-4255-87E2-E642F8F3C8D6}"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://www.digikey.com/en/products/detail/eaton-electronics-division/PTR030V0110-BK/2675229" xr:uid="{A74FB9F2-4514-4313-AAC8-08449D5E3FB8}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{A74FB9F2-4514-4313-AAC8-08449D5E3FB8}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{B2A231AB-F36C-4E66-A076-054BA39C3D04}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{F603EE76-9EED-47F7-B22D-B91BFCA2977E}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{273BD2B9-A09D-4094-9F56-A6655DEA6C59}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{A784BCE2-A2D8-4C8D-9F5C-731FDAE55803}"/>
+    <hyperlink ref="I15" r:id="rId9" display="https://www.digikey.com/en/products/detail/yageo/CFR-25JR-52-330R/11962" xr:uid="{8237DAC6-311C-4ED4-B302-A4B001AA06BA}"/>
+    <hyperlink ref="I18" r:id="rId10" xr:uid="{4D7E58C0-5FE3-4057-A35D-065283EBF2A9}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{728AA35E-B42B-4455-BDFF-854B96B1F9A0}"/>
+    <hyperlink ref="I6" r:id="rId12" xr:uid="{FE602473-71B1-4A09-B044-305A36042B0C}"/>
+    <hyperlink ref="I3" r:id="rId13" xr:uid="{C7F84057-41D5-4ABB-B419-96509B516BE0}"/>
+    <hyperlink ref="I2" r:id="rId14" xr:uid="{CA4B64A0-43FD-4DC9-9AF3-CEBBB0806805}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId15"/>
 </worksheet>
 </file>